--- a/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CB6DC2-2F10-41CB-8785-6993FF5B1D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92D2F97-CC43-4E5E-9AFC-58B20E96E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82D5D178-A48E-427C-BAFA-FEEB08C9B522}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B237220-8BA7-4FE1-BBF3-7FBDEFABA377}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
-    <sheet name="2023" sheetId="3" r:id="rId2"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
-  <si>
-    <t>Población que fuma diariamente en 2015 (Tasa respuesta: 99,89%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
+  <si>
+    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,991 +72,928 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>33,08%</t>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>25,08%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>67,86%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F723F-C9DF-4C43-B102-3A902BD2847E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEEAEFA-7353-4329-9277-DD2960FD1112}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1586,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D4" s="7">
-        <v>97180</v>
+        <v>113358</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1601,10 +1538,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>65149</v>
+        <v>72312</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1616,10 +1553,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="N4" s="7">
-        <v>162329</v>
+        <v>185669</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1637,10 +1574,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>196581</v>
+        <v>159652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1652,10 +1589,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="I5" s="7">
-        <v>223554</v>
+        <v>188526</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1667,10 +1604,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="N5" s="7">
-        <v>420135</v>
+        <v>348179</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1688,10 +1625,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>293761</v>
+        <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1703,10 +1640,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>288703</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1718,10 +1655,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="N6" s="7">
-        <v>582464</v>
+        <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1741,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="7">
-        <v>194111</v>
+        <v>191486</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1756,10 +1693,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I7" s="7">
-        <v>135664</v>
+        <v>118656</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1771,10 +1708,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>329775</v>
+        <v>310143</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1792,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D8" s="7">
-        <v>307600</v>
+        <v>300547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1807,10 +1744,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="I8" s="7">
-        <v>385222</v>
+        <v>385293</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1822,10 +1759,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="N8" s="7">
-        <v>692822</v>
+        <v>685839</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1843,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>501711</v>
+        <v>492033</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1858,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>520886</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1873,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="N9" s="7">
-        <v>1022597</v>
+        <v>995982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1896,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7">
-        <v>88971</v>
+        <v>147839</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1911,10 +1848,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>75111</v>
+        <v>94889</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1926,10 +1863,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="N10" s="7">
-        <v>164081</v>
+        <v>242728</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1947,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="D11" s="7">
-        <v>229594</v>
+        <v>171007</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1962,10 +1899,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I11" s="7">
-        <v>261198</v>
+        <v>240523</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1977,10 +1914,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="N11" s="7">
-        <v>490793</v>
+        <v>411530</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1998,25 +1935,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>310</v>
+      </c>
+      <c r="D12" s="7">
+        <v>318846</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>335</v>
       </c>
-      <c r="D12" s="7">
-        <v>318565</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>332</v>
-      </c>
       <c r="I12" s="7">
-        <v>336309</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="N12" s="7">
-        <v>654874</v>
+        <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2051,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D13" s="7">
-        <v>130773</v>
+        <v>170487</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2066,10 +2003,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="I13" s="7">
-        <v>95584</v>
+        <v>105219</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2081,10 +2018,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="N13" s="7">
-        <v>226358</v>
+        <v>275706</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2102,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>239191</v>
+        <v>188184</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2117,10 +2054,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="I14" s="7">
-        <v>290414</v>
+        <v>266237</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2132,10 +2069,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="N14" s="7">
-        <v>529604</v>
+        <v>454421</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2153,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>369964</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2168,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>385998</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2183,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="N15" s="7">
-        <v>755962</v>
+        <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2206,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>79862</v>
+        <v>84329</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2221,10 +2158,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>56643</v>
+        <v>59526</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2236,10 +2173,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N16" s="7">
-        <v>136504</v>
+        <v>143855</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2257,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <v>131359</v>
+        <v>118979</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2272,10 +2209,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I17" s="7">
-        <v>161944</v>
+        <v>148142</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2287,10 +2224,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="N17" s="7">
-        <v>293304</v>
+        <v>267121</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2308,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>211221</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2323,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>218587</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>429808</v>
+        <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2361,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7">
-        <v>84320</v>
+        <v>125328</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2379,7 +2316,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>65029</v>
+        <v>65007</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2391,10 +2328,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="N19" s="7">
-        <v>149349</v>
+        <v>190335</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2412,10 +2349,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D20" s="7">
-        <v>178803</v>
+        <v>145483</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2427,10 +2364,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I20" s="7">
-        <v>208086</v>
+        <v>213137</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2442,10 +2379,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="N20" s="7">
-        <v>386889</v>
+        <v>358620</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2463,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>263123</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>273115</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2493,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="N21" s="7">
-        <v>536238</v>
+        <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2516,10 +2453,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="D22" s="7">
-        <v>180892</v>
+        <v>234976</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2531,10 +2468,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>149763</v>
+        <v>161353</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2546,10 +2483,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="N22" s="7">
-        <v>330655</v>
+        <v>396329</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2558,7 +2495,7 @@
         <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,49 +2504,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="D23" s="7">
-        <v>474594</v>
+        <v>380051</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>463</v>
+      </c>
+      <c r="I23" s="7">
+        <v>476866</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="7">
-        <v>500</v>
-      </c>
-      <c r="I23" s="7">
-        <v>539576</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>831</v>
+      </c>
+      <c r="N23" s="7">
+        <v>856917</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M23" s="7">
-        <v>925</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1014170</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,10 +2555,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>655486</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2633,10 +2570,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7">
-        <v>689339</v>
+        <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2648,10 +2585,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="7">
-        <v>1344825</v>
+        <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2665,55 +2602,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="D25" s="7">
-        <v>234285</v>
+        <v>317478</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>179</v>
+      </c>
+      <c r="I25" s="7">
+        <v>186368</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="7">
-        <v>195</v>
-      </c>
-      <c r="I25" s="7">
-        <v>204631</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>486</v>
+      </c>
+      <c r="N25" s="7">
+        <v>503845</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="7">
-        <v>415</v>
-      </c>
-      <c r="N25" s="7">
-        <v>438916</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +2659,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>530</v>
+        <v>429</v>
       </c>
       <c r="D26" s="7">
-        <v>544298</v>
+        <v>426317</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>566</v>
+      </c>
+      <c r="I26" s="7">
+        <v>597143</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="7">
-        <v>560</v>
-      </c>
-      <c r="I26" s="7">
-        <v>621536</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>995</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1023461</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M26" s="7">
-        <v>1090</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1165834</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,10 +2710,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D27" s="7">
-        <v>778583</v>
+        <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2788,10 +2725,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="I27" s="7">
-        <v>826167</v>
+        <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2803,10 +2740,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>1505</v>
+        <v>1481</v>
       </c>
       <c r="N27" s="7">
-        <v>1604750</v>
+        <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2826,49 +2763,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1013</v>
+        <v>1349</v>
       </c>
       <c r="D28" s="7">
-        <v>1090392</v>
+        <v>1385281</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="7">
+        <v>845</v>
+      </c>
+      <c r="I28" s="7">
+        <v>863330</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7">
-        <v>821</v>
-      </c>
-      <c r="I28" s="7">
-        <v>847575</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2194</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2248612</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1834</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1937967</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,49 +2814,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2216</v>
+        <v>1864</v>
       </c>
       <c r="D29" s="7">
-        <v>2302022</v>
+        <v>1890220</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2452</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2515868</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>4316</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4406087</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="7">
-        <v>2512</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2691529</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4728</v>
-      </c>
-      <c r="N29" s="7">
-        <v>4993550</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,10 +2865,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>3229</v>
+        <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3392414</v>
+        <v>3275501</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2943,10 +2880,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>3333</v>
+        <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3539104</v>
+        <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2958,10 +2895,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>6562</v>
+        <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6931517</v>
+        <v>6654699</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2975,7 +2912,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBFDA4D-C01F-4EED-9B86-AD9D97D146E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D168A60-8DFA-4F03-8277-8E5C14889FF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3117,49 +3054,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7">
-        <v>60171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>105</v>
-      </c>
-      <c r="I4" s="7">
-        <v>56176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>171</v>
-      </c>
-      <c r="N4" s="7">
-        <v>116347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,49 +3099,43 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>265</v>
-      </c>
-      <c r="D5" s="7">
-        <v>200127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
-        <v>433</v>
-      </c>
-      <c r="I5" s="7">
-        <v>215227</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
-        <v>698</v>
-      </c>
-      <c r="N5" s="7">
-        <v>415353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,49 +3144,43 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>331</v>
-      </c>
-      <c r="D6" s="7">
-        <v>260298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
-        <v>538</v>
-      </c>
-      <c r="I6" s="7">
-        <v>271403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
-        <v>869</v>
-      </c>
-      <c r="N6" s="7">
-        <v>531700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,49 +3191,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="D7" s="7">
-        <v>117416</v>
+        <v>208104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="I7" s="7">
-        <v>93729</v>
+        <v>151218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="N7" s="7">
-        <v>211146</v>
+        <v>359323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,49 +3242,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D8" s="7">
-        <v>401881</v>
+        <v>297423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>602</v>
+        <v>342</v>
       </c>
       <c r="I8" s="7">
-        <v>460837</v>
+        <v>372547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>900</v>
+        <v>623</v>
       </c>
       <c r="N8" s="7">
-        <v>862718</v>
+        <v>669969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3389,10 +3308,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>717</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3404,10 +3323,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>952</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3427,49 +3346,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>72212</v>
+        <v>127037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>63242</v>
+        <v>87433</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="N10" s="7">
-        <v>135454</v>
+        <v>214471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,49 +3397,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>250028</v>
+        <v>197009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>451</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>310042</v>
+        <v>252601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>729</v>
+        <v>429</v>
       </c>
       <c r="N11" s="7">
-        <v>560070</v>
+        <v>449609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3544,10 +3463,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>536</v>
+        <v>316</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>340034</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3559,10 +3478,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>896</v>
+        <v>635</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>664080</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3582,49 +3501,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="D13" s="7">
-        <v>75526</v>
+        <v>268406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="I13" s="7">
-        <v>72475</v>
+        <v>201915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="N13" s="7">
-        <v>148002</v>
+        <v>470321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,49 +3552,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>376</v>
       </c>
       <c r="D14" s="7">
-        <v>246714</v>
+        <v>400314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>519</v>
+        <v>443</v>
       </c>
       <c r="I14" s="7">
-        <v>356081</v>
+        <v>474281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
-        <v>752</v>
+        <v>819</v>
       </c>
       <c r="N14" s="7">
-        <v>602794</v>
+        <v>874595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>292</v>
+        <v>626</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3699,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3714,10 +3633,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>891</v>
+        <v>1253</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>1344916</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3737,49 +3656,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>35315</v>
+        <v>91399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I16" s="7">
-        <v>28437</v>
+        <v>65439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="N16" s="7">
-        <v>63751</v>
+        <v>156839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,49 +3707,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>161433</v>
+        <v>121219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
-        <v>432</v>
+        <v>148</v>
       </c>
       <c r="I17" s="7">
-        <v>203466</v>
+        <v>154152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>656</v>
+        <v>260</v>
       </c>
       <c r="N17" s="7">
-        <v>364900</v>
+        <v>275370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3854,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>492</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3869,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>771</v>
+        <v>408</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3892,49 +3811,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7">
-        <v>69946</v>
+        <v>83740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>47959</v>
+        <v>66879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N19" s="7">
-        <v>117905</v>
+        <v>150619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,49 +3862,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="D20" s="7">
-        <v>207277</v>
+        <v>190241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="I20" s="7">
-        <v>227663</v>
+        <v>213152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
-        <v>673</v>
+        <v>384</v>
       </c>
       <c r="N20" s="7">
-        <v>434940</v>
+        <v>403393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4009,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>460</v>
+        <v>269</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4024,10 +3943,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4047,49 +3966,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="D22" s="7">
-        <v>142090</v>
+        <v>280194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I22" s="7">
-        <v>137086</v>
+        <v>194550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="N22" s="7">
-        <v>279176</v>
+        <v>474744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4017,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>465</v>
+        <v>355</v>
       </c>
       <c r="D23" s="7">
-        <v>484428</v>
+        <v>382594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>771</v>
+        <v>458</v>
       </c>
       <c r="I23" s="7">
-        <v>662879</v>
+        <v>499303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>1236</v>
+        <v>813</v>
       </c>
       <c r="N23" s="7">
-        <v>1147307</v>
+        <v>881897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="D24" s="7">
-        <v>626518</v>
+        <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4164,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>957</v>
+        <v>636</v>
       </c>
       <c r="I24" s="7">
-        <v>799965</v>
+        <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4098,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1554</v>
+        <v>1254</v>
       </c>
       <c r="N24" s="7">
-        <v>1426483</v>
+        <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4196,55 +4115,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
+        <v>274</v>
+      </c>
+      <c r="D25" s="7">
+        <v>296154</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
         <v>190</v>
       </c>
-      <c r="D25" s="7">
-        <v>215412</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H25" s="7">
-        <v>148</v>
-      </c>
       <c r="I25" s="7">
-        <v>133675</v>
+        <v>208836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="N25" s="7">
-        <v>349087</v>
+        <v>504990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,49 +4172,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>571</v>
+        <v>442</v>
       </c>
       <c r="D26" s="7">
-        <v>642825</v>
+        <v>481915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
-        <v>914</v>
+        <v>566</v>
       </c>
       <c r="I26" s="7">
-        <v>734759</v>
+        <v>614021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
-        <v>1485</v>
+        <v>1008</v>
       </c>
       <c r="N26" s="7">
-        <v>1377584</v>
+        <v>1095936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,10 +4223,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>761</v>
+        <v>716</v>
       </c>
       <c r="D27" s="7">
-        <v>858237</v>
+        <v>778069</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4319,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>1062</v>
+        <v>756</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>822857</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4334,10 +4253,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>1823</v>
+        <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>1726671</v>
+        <v>1600926</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4357,49 +4276,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>756</v>
+        <v>1270</v>
       </c>
       <c r="D28" s="7">
-        <v>788087</v>
+        <v>1355036</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
-        <v>849</v>
+        <v>898</v>
       </c>
       <c r="I28" s="7">
-        <v>632780</v>
+        <v>976270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
-        <v>1605</v>
+        <v>2168</v>
       </c>
       <c r="N28" s="7">
-        <v>1420867</v>
+        <v>2331306</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,49 +4327,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2617</v>
+        <v>1938</v>
       </c>
       <c r="D29" s="7">
-        <v>2594713</v>
+        <v>2070713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
-        <v>4512</v>
+        <v>2398</v>
       </c>
       <c r="I29" s="7">
-        <v>3170954</v>
+        <v>2580057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
-        <v>7129</v>
+        <v>4336</v>
       </c>
       <c r="N29" s="7">
-        <v>5765667</v>
+        <v>4650770</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,10 +4378,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>3373</v>
+        <v>3208</v>
       </c>
       <c r="D30" s="7">
-        <v>3382800</v>
+        <v>3425749</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4474,10 +4393,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>5361</v>
+        <v>3296</v>
       </c>
       <c r="I30" s="7">
-        <v>3803734</v>
+        <v>3556327</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4489,10 +4408,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>8734</v>
+        <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>7186534</v>
+        <v>6982076</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4506,7 +4425,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92D2F97-CC43-4E5E-9AFC-58B20E96E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6502345C-0EF6-492A-8FBC-7A3D4C331261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B237220-8BA7-4FE1-BBF3-7FBDEFABA377}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE19C513-5458-4E96-9126-CC1E2BD09589}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="323">
   <si>
     <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>58,48%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>38,92%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>61,08%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,667 +195,679 @@
     <t>46,37%</t>
   </si>
   <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>33,5%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>74,93%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>32,3%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>74,29%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>67,7%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>40,14%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>29,86%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>59,86%</t>
   </si>
   <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>70,14%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>70,2%</t>
   </si>
   <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>31,08%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>68,92%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>42,28%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>34,99%</t>
@@ -864,31 +876,31 @@
     <t>32,47%</t>
   </si>
   <si>
-    <t>37,72%</t>
+    <t>37,45%</t>
   </si>
   <si>
     <t>57,72%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>65,01%</t>
   </si>
   <si>
-    <t>62,28%</t>
+    <t>62,55%</t>
   </si>
   <si>
     <t>67,53%</t>
@@ -897,103 +909,103 @@
     <t>38,06%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEEAEFA-7353-4329-9277-DD2960FD1112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E5FB32-F336-4262-AC54-339AA5124486}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2307,10 +2319,10 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2319,13 +2331,13 @@
         <v>65007</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -2334,13 +2346,13 @@
         <v>190335</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2367,13 @@
         <v>145483</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -2370,13 +2382,13 @@
         <v>213137</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -2385,13 +2397,13 @@
         <v>358620</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2459,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2459,13 +2471,13 @@
         <v>234976</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2474,13 +2486,13 @@
         <v>161353</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>388</v>
@@ -2489,13 +2501,13 @@
         <v>396329</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2522,13 @@
         <v>380051</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>463</v>
@@ -2525,13 +2537,13 @@
         <v>476866</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>831</v>
@@ -2540,10 +2552,10 @@
         <v>856917</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>142</v>
@@ -2769,13 +2781,13 @@
         <v>1385281</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>845</v>
@@ -2784,13 +2796,13 @@
         <v>863330</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>2194</v>
@@ -2799,13 +2811,13 @@
         <v>2248612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2832,13 @@
         <v>1890220</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2452</v>
@@ -2835,13 +2847,13 @@
         <v>2515868</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>4316</v>
@@ -2850,13 +2862,13 @@
         <v>4406087</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2924,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D168A60-8DFA-4F03-8277-8E5C14889FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72219C5-1C0E-4BDC-9AD7-3F89FBA821D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2953,7 +2965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3058,39 +3070,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,39 +3115,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,39 +3160,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3209,13 @@
         <v>208104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3212,13 +3224,13 @@
         <v>151218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -3227,13 +3239,13 @@
         <v>359323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3260,13 @@
         <v>297423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -3263,13 +3275,13 @@
         <v>372547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>623</v>
@@ -3278,13 +3290,13 @@
         <v>669969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3364,13 @@
         <v>127037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3367,13 +3379,13 @@
         <v>87433</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -3382,13 +3394,13 @@
         <v>214471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3415,13 @@
         <v>197009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>236</v>
@@ -3418,13 +3430,13 @@
         <v>252601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>429</v>
@@ -3433,13 +3445,13 @@
         <v>449609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3519,13 @@
         <v>268406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -3522,13 +3534,13 @@
         <v>201915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -3537,13 +3549,13 @@
         <v>470321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3570,13 @@
         <v>400314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -3573,13 +3585,13 @@
         <v>474281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>819</v>
@@ -3588,13 +3600,13 @@
         <v>874595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3674,13 @@
         <v>91399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -3677,13 +3689,13 @@
         <v>65439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -3692,13 +3704,13 @@
         <v>156839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3725,13 @@
         <v>121219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -3728,13 +3740,13 @@
         <v>154152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>260</v>
@@ -3743,13 +3755,13 @@
         <v>275370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3829,13 @@
         <v>83740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -3832,13 +3844,13 @@
         <v>66879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -3847,13 +3859,13 @@
         <v>150619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3880,13 @@
         <v>190241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -3883,13 +3895,13 @@
         <v>213152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -3898,13 +3910,13 @@
         <v>403393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3972,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3972,13 +3984,13 @@
         <v>280194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -3987,13 +3999,13 @@
         <v>194550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>441</v>
@@ -4002,13 +4014,13 @@
         <v>474744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4035,13 @@
         <v>382594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>458</v>
@@ -4038,13 +4050,13 @@
         <v>499303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>813</v>
@@ -4053,13 +4065,13 @@
         <v>881897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4139,13 @@
         <v>296154</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4142,13 +4154,13 @@
         <v>208836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
@@ -4157,13 +4169,13 @@
         <v>504990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4190,13 @@
         <v>481915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>566</v>
@@ -4193,13 +4205,13 @@
         <v>614021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1008</v>
@@ -4208,13 +4220,13 @@
         <v>1095936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4294,13 @@
         <v>1355036</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>898</v>
@@ -4297,13 +4309,13 @@
         <v>976270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>2168</v>
@@ -4312,13 +4324,13 @@
         <v>2331306</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4345,13 @@
         <v>2070713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>2398</v>
@@ -4348,13 +4360,13 @@
         <v>2580057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>4336</v>
@@ -4363,13 +4375,13 @@
         <v>4650770</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,7 +4437,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6502345C-0EF6-492A-8FBC-7A3D4C331261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{713FC74C-E035-4999-B7B0-3BFC898501B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE19C513-5458-4E96-9126-CC1E2BD09589}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72EA61FE-CC5E-4753-9487-AB111EFF7B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="327">
   <si>
     <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>58,48%</t>
   </si>
   <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>65,22%</t>
   </si>
   <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>38,92%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>61,08%</t>
   </si>
   <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,817 +195,829 @@
     <t>46,37%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E5FB32-F336-4262-AC54-339AA5124486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BDE65A-B4EB-4AB2-9BE0-213B084B2F43}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2319,10 +2331,10 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2331,13 +2343,13 @@
         <v>65007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -2346,13 +2358,13 @@
         <v>190335</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2379,13 @@
         <v>145483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -2382,13 +2394,13 @@
         <v>213137</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -2397,13 +2409,13 @@
         <v>358620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,7 +2471,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2471,13 +2483,13 @@
         <v>234976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2486,13 +2498,13 @@
         <v>161353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>388</v>
@@ -2501,13 +2513,13 @@
         <v>396329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2534,13 @@
         <v>380051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>463</v>
@@ -2537,13 +2549,13 @@
         <v>476866</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>831</v>
@@ -2552,13 +2564,13 @@
         <v>856917</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,7 +2626,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2626,13 +2638,13 @@
         <v>317478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -2641,13 +2653,13 @@
         <v>186368</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>486</v>
@@ -2656,13 +2668,13 @@
         <v>503845</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2689,13 @@
         <v>426317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>566</v>
@@ -2692,13 +2704,13 @@
         <v>597143</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>995</v>
@@ -2707,13 +2719,13 @@
         <v>1023461</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2793,13 @@
         <v>1385281</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>845</v>
@@ -2796,28 +2808,28 @@
         <v>863330</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>2194</v>
       </c>
       <c r="N28" s="7">
-        <v>2248612</v>
+        <v>2248611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2844,13 @@
         <v>1890220</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2452</v>
@@ -2847,13 +2859,13 @@
         <v>2515868</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4316</v>
@@ -2862,13 +2874,13 @@
         <v>4406087</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2922,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2924,7 +2936,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72219C5-1C0E-4BDC-9AD7-3F89FBA821D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872ED524-6B03-4DF3-B015-9DCC54E52851}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2965,7 +2977,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3070,39 +3082,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,39 +3127,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,39 +3172,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3221,13 @@
         <v>208104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3224,13 +3236,13 @@
         <v>151218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -3239,13 +3251,13 @@
         <v>359323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3272,13 @@
         <v>297423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -3275,13 +3287,13 @@
         <v>372547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>623</v>
@@ -3290,13 +3302,13 @@
         <v>669969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3376,13 @@
         <v>127037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3379,13 +3391,13 @@
         <v>87433</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -3394,13 +3406,13 @@
         <v>214471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3427,13 @@
         <v>197009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>236</v>
@@ -3430,13 +3442,13 @@
         <v>252601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>429</v>
@@ -3445,13 +3457,13 @@
         <v>449609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3531,13 @@
         <v>268406</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -3534,13 +3546,13 @@
         <v>201915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -3549,13 +3561,13 @@
         <v>470321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3582,13 @@
         <v>400314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>443</v>
@@ -3585,13 +3597,13 @@
         <v>474281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>819</v>
@@ -3600,13 +3612,13 @@
         <v>874595</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3686,13 @@
         <v>91399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -3689,13 +3701,13 @@
         <v>65439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -3704,13 +3716,13 @@
         <v>156839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3737,13 @@
         <v>121219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -3740,13 +3752,13 @@
         <v>154152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>260</v>
@@ -3755,13 +3767,13 @@
         <v>275370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3841,13 @@
         <v>83740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -3844,13 +3856,13 @@
         <v>66879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -3859,13 +3871,13 @@
         <v>150619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3892,13 @@
         <v>190241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -3895,13 +3907,13 @@
         <v>213152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -3910,13 +3922,13 @@
         <v>403393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3984,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3984,13 +3996,13 @@
         <v>280194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -3999,13 +4011,13 @@
         <v>194550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>441</v>
@@ -4014,13 +4026,13 @@
         <v>474744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4047,13 @@
         <v>382594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>458</v>
@@ -4050,13 +4062,13 @@
         <v>499303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>813</v>
@@ -4065,13 +4077,13 @@
         <v>881897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4139,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4139,13 +4151,13 @@
         <v>296154</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4154,13 +4166,13 @@
         <v>208836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
@@ -4169,13 +4181,13 @@
         <v>504990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4202,13 @@
         <v>481915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>566</v>
@@ -4205,13 +4217,13 @@
         <v>614021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1008</v>
@@ -4220,13 +4232,13 @@
         <v>1095936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4306,13 @@
         <v>1355036</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>898</v>
@@ -4309,13 +4321,13 @@
         <v>976270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>2168</v>
@@ -4324,13 +4336,13 @@
         <v>2331306</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4357,13 @@
         <v>2070713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>2398</v>
@@ -4360,13 +4372,13 @@
         <v>2580057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>4336</v>
@@ -4375,13 +4387,13 @@
         <v>4650770</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,7 +4449,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{713FC74C-E035-4999-B7B0-3BFC898501B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BD1A2B-1AC7-4CF2-ACD7-09F6B287096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72EA61FE-CC5E-4753-9487-AB111EFF7B8A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{170511D5-B71A-4316-867D-84223A874C53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="327">
-  <si>
-    <t>Población que fuma diariamente en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="493">
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -588,10 +589,55 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que fuma diariamente en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
   <si>
     <t>41,17%</t>
@@ -702,52 +748,52 @@
     <t>71,5%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>42,99%</t>
@@ -1018,6 +1064,459 @@
   </si>
   <si>
     <t>67,73%</t>
+  </si>
+  <si>
+    <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BDE65A-B4EB-4AB2-9BE0-213B084B2F43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA1E5A2-8741-4E9E-B451-6B1E63E35A03}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2856,7 +3355,7 @@
         <v>2452</v>
       </c>
       <c r="I29" s="7">
-        <v>2515868</v>
+        <v>2515867</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -2907,7 +3406,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2960,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872ED524-6B03-4DF3-B015-9DCC54E52851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F24058F-F215-46F8-A1F5-65A713ECDFD9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3078,43 +3577,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="D4" s="7">
+        <v>136480</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I4" s="7">
+        <v>97931</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="N4" s="7">
+        <v>234411</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,43 +3628,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="D5" s="7">
+        <v>158258</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="I5" s="7">
+        <v>189314</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="N5" s="7">
+        <v>347572</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,43 +3679,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3738,13 @@
         <v>208104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3236,13 +3753,13 @@
         <v>151218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -3251,13 +3768,13 @@
         <v>359323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3789,13 @@
         <v>297423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>342</v>
@@ -3287,13 +3804,13 @@
         <v>372547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>623</v>
@@ -3302,13 +3819,13 @@
         <v>669969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3893,13 @@
         <v>127037</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3391,13 +3908,13 @@
         <v>87433</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -3406,13 +3923,13 @@
         <v>214471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3944,13 @@
         <v>197009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>236</v>
@@ -3442,13 +3959,13 @@
         <v>252601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>429</v>
@@ -3457,13 +3974,13 @@
         <v>449609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,49 +4042,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7">
-        <v>268406</v>
+        <v>131927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>201915</v>
+        <v>103984</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>434</v>
+        <v>219</v>
       </c>
       <c r="N13" s="7">
-        <v>470321</v>
+        <v>235910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +4093,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>376</v>
+        <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>400314</v>
+        <v>242055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>443</v>
+        <v>271</v>
       </c>
       <c r="I14" s="7">
-        <v>474281</v>
+        <v>284967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>819</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>874595</v>
+        <v>527023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3642,10 +4159,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3657,10 +4174,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3686,13 +4203,13 @@
         <v>91399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -3701,13 +4218,13 @@
         <v>65439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -3716,13 +4233,13 @@
         <v>156839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +4254,13 @@
         <v>121219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -3752,13 +4269,13 @@
         <v>154152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>260</v>
@@ -3767,13 +4284,13 @@
         <v>275370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +4358,13 @@
         <v>83740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -3856,13 +4373,13 @@
         <v>66879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -3871,13 +4388,13 @@
         <v>150619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +4409,13 @@
         <v>190241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -3907,13 +4424,13 @@
         <v>213152</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -3922,13 +4439,13 @@
         <v>403393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4513,13 @@
         <v>280194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -4011,13 +4528,13 @@
         <v>194550</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>441</v>
@@ -4026,13 +4543,13 @@
         <v>474744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4564,13 @@
         <v>382594</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>458</v>
@@ -4062,13 +4579,13 @@
         <v>499303</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>813</v>
@@ -4077,13 +4594,13 @@
         <v>881897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4668,13 @@
         <v>296154</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4166,13 +4683,13 @@
         <v>208836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
@@ -4181,13 +4698,13 @@
         <v>504990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4719,13 @@
         <v>481915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>566</v>
@@ -4217,13 +4734,13 @@
         <v>614021</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1008</v>
@@ -4232,13 +4749,13 @@
         <v>1095936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4823,13 @@
         <v>1355036</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>898</v>
@@ -4321,13 +4838,13 @@
         <v>976270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>2168</v>
@@ -4336,13 +4853,13 @@
         <v>2331306</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4874,13 @@
         <v>2070713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>2398</v>
@@ -4372,13 +4889,13 @@
         <v>2580057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>4336</v>
@@ -4387,13 +4904,13 @@
         <v>4650770</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,6 +4953,1537 @@
       </c>
       <c r="N30" s="7">
         <v>6982076</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9033FDCB-207F-4216-B899-F8DA6582D563}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7">
+        <v>107914</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="7">
+        <v>73</v>
+      </c>
+      <c r="I4" s="7">
+        <v>73714</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M4" s="7">
+        <v>169</v>
+      </c>
+      <c r="N4" s="7">
+        <v>181627</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>170</v>
+      </c>
+      <c r="D5" s="7">
+        <v>185847</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="7">
+        <v>204</v>
+      </c>
+      <c r="I5" s="7">
+        <v>214989</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M5" s="7">
+        <v>374</v>
+      </c>
+      <c r="N5" s="7">
+        <v>400837</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>266</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>277</v>
+      </c>
+      <c r="I6" s="7">
+        <v>288703</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>543</v>
+      </c>
+      <c r="N6" s="7">
+        <v>582464</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>196</v>
+      </c>
+      <c r="D7" s="7">
+        <v>210096</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H7" s="7">
+        <v>135</v>
+      </c>
+      <c r="I7" s="7">
+        <v>141801</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M7" s="7">
+        <v>331</v>
+      </c>
+      <c r="N7" s="7">
+        <v>351897</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>278</v>
+      </c>
+      <c r="D8" s="7">
+        <v>291615</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H8" s="7">
+        <v>347</v>
+      </c>
+      <c r="I8" s="7">
+        <v>379085</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M8" s="7">
+        <v>625</v>
+      </c>
+      <c r="N8" s="7">
+        <v>670700</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>474</v>
+      </c>
+      <c r="D9" s="7">
+        <v>501711</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>482</v>
+      </c>
+      <c r="I9" s="7">
+        <v>520886</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>956</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1022597</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>96331</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10" s="7">
+        <v>83</v>
+      </c>
+      <c r="I10" s="7">
+        <v>81403</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" s="7">
+        <v>183</v>
+      </c>
+      <c r="N10" s="7">
+        <v>177734</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>235</v>
+      </c>
+      <c r="D11" s="7">
+        <v>222234</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H11" s="7">
+        <v>249</v>
+      </c>
+      <c r="I11" s="7">
+        <v>254906</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M11" s="7">
+        <v>484</v>
+      </c>
+      <c r="N11" s="7">
+        <v>477140</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>335</v>
+      </c>
+      <c r="D12" s="7">
+        <v>318565</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>332</v>
+      </c>
+      <c r="I12" s="7">
+        <v>336309</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>667</v>
+      </c>
+      <c r="N12" s="7">
+        <v>654874</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>132</v>
+      </c>
+      <c r="D13" s="7">
+        <v>142205</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="7">
+        <v>101</v>
+      </c>
+      <c r="I13" s="7">
+        <v>108757</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M13" s="7">
+        <v>233</v>
+      </c>
+      <c r="N13" s="7">
+        <v>250962</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>222</v>
+      </c>
+      <c r="D14" s="7">
+        <v>227759</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" s="7">
+        <v>256</v>
+      </c>
+      <c r="I14" s="7">
+        <v>277241</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M14" s="7">
+        <v>478</v>
+      </c>
+      <c r="N14" s="7">
+        <v>505000</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>354</v>
+      </c>
+      <c r="D15" s="7">
+        <v>369964</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>357</v>
+      </c>
+      <c r="I15" s="7">
+        <v>385998</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>711</v>
+      </c>
+      <c r="N15" s="7">
+        <v>755962</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7">
+        <v>85886</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" s="7">
+        <v>60</v>
+      </c>
+      <c r="I16" s="7">
+        <v>56643</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M16" s="7">
+        <v>143</v>
+      </c>
+      <c r="N16" s="7">
+        <v>142529</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>129</v>
+      </c>
+      <c r="D17" s="7">
+        <v>125335</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="7">
+        <v>163</v>
+      </c>
+      <c r="I17" s="7">
+        <v>161944</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M17" s="7">
+        <v>292</v>
+      </c>
+      <c r="N17" s="7">
+        <v>287279</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>211221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>223</v>
+      </c>
+      <c r="I18" s="7">
+        <v>218587</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>435</v>
+      </c>
+      <c r="N18" s="7">
+        <v>429808</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>86</v>
+      </c>
+      <c r="D19" s="7">
+        <v>89201</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" s="7">
+        <v>71</v>
+      </c>
+      <c r="I19" s="7">
+        <v>73058</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M19" s="7">
+        <v>157</v>
+      </c>
+      <c r="N19" s="7">
+        <v>162259</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>173</v>
+      </c>
+      <c r="D20" s="7">
+        <v>173922</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H20" s="7">
+        <v>192</v>
+      </c>
+      <c r="I20" s="7">
+        <v>200057</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M20" s="7">
+        <v>365</v>
+      </c>
+      <c r="N20" s="7">
+        <v>373979</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>263123</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>263</v>
+      </c>
+      <c r="I21" s="7">
+        <v>273115</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>522</v>
+      </c>
+      <c r="N21" s="7">
+        <v>536238</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>173</v>
+      </c>
+      <c r="D22" s="7">
+        <v>202092</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H22" s="7">
+        <v>168</v>
+      </c>
+      <c r="I22" s="7">
+        <v>174812</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M22" s="7">
+        <v>341</v>
+      </c>
+      <c r="N22" s="7">
+        <v>376904</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>406</v>
+      </c>
+      <c r="D23" s="7">
+        <v>453394</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H23" s="7">
+        <v>476</v>
+      </c>
+      <c r="I23" s="7">
+        <v>514527</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M23" s="7">
+        <v>882</v>
+      </c>
+      <c r="N23" s="7">
+        <v>967921</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>579</v>
+      </c>
+      <c r="D24" s="7">
+        <v>655486</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>644</v>
+      </c>
+      <c r="I24" s="7">
+        <v>689339</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1223</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1344825</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>241</v>
+      </c>
+      <c r="D25" s="7">
+        <v>256010</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H25" s="7">
+        <v>204</v>
+      </c>
+      <c r="I25" s="7">
+        <v>214288</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M25" s="7">
+        <v>445</v>
+      </c>
+      <c r="N25" s="7">
+        <v>470298</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>509</v>
+      </c>
+      <c r="D26" s="7">
+        <v>522573</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H26" s="7">
+        <v>551</v>
+      </c>
+      <c r="I26" s="7">
+        <v>611879</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1060</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1134452</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>750</v>
+      </c>
+      <c r="D27" s="7">
+        <v>778583</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>755</v>
+      </c>
+      <c r="I27" s="7">
+        <v>826167</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1505</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1604750</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1107</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1189733</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H28" s="7">
+        <v>895</v>
+      </c>
+      <c r="I28" s="7">
+        <v>924476</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2002</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2114209</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2122</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2202681</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2438</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2614627</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4560</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4817308</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3229</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3392414</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3539103</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>6562</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6931517</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
